--- a/設計書類_レビュー前/テーブル定義書.xlsx
+++ b/設計書類_レビュー前/テーブル定義書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\設計書類_レビュー前\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="758" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="758" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="62" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="124">
   <si>
     <t>初期値</t>
   </si>
@@ -438,10 +438,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>payment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>quantity</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -599,10 +595,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>delete</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>削除の確認(削除0、削除されていない1)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -650,6 +642,30 @@
     <rPh sb="10" eb="11">
       <t>シュ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_del</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>payment_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>menu_table</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5268,7 +5284,7 @@
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
       <c r="M8" s="37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N8" s="38"/>
       <c r="O8" s="38"/>
@@ -5280,7 +5296,7 @@
       <c r="U8" s="38"/>
       <c r="V8" s="39"/>
       <c r="W8" s="41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="X8" s="42"/>
       <c r="Y8" s="42"/>
@@ -8038,10 +8054,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="AB13" sqref="AB13:AD13"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -8131,7 +8147,7 @@
       <c r="M2" s="62"/>
       <c r="N2" s="63"/>
       <c r="O2" s="64" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="P2" s="65"/>
       <c r="Q2" s="65"/>
@@ -8303,7 +8319,7 @@
       <c r="AI5" s="51"/>
       <c r="AJ5" s="51"/>
       <c r="AK5" s="51" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="AL5" s="51"/>
       <c r="AM5" s="33" t="s">
@@ -8341,7 +8357,7 @@
       <c r="J6" s="38"/>
       <c r="K6" s="39"/>
       <c r="L6" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
@@ -8410,7 +8426,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="39"/>
       <c r="L7" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -8468,7 +8484,7 @@
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -8479,7 +8495,7 @@
       <c r="J8" s="38"/>
       <c r="K8" s="39"/>
       <c r="L8" s="37" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -8490,7 +8506,7 @@
       <c r="S8" s="38"/>
       <c r="T8" s="39"/>
       <c r="U8" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V8" s="33"/>
       <c r="W8" s="33"/>
@@ -8509,12 +8525,10 @@
       <c r="AH8" s="51"/>
       <c r="AI8" s="51"/>
       <c r="AJ8" s="51"/>
-      <c r="AK8" s="51" t="s">
-        <v>65</v>
-      </c>
+      <c r="AK8" s="51"/>
       <c r="AL8" s="51"/>
       <c r="AM8" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AN8" s="33"/>
       <c r="AO8" s="33"/>
@@ -8537,7 +8551,7 @@
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -8548,7 +8562,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="39"/>
       <c r="L9" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -8559,7 +8573,7 @@
       <c r="S9" s="38"/>
       <c r="T9" s="39"/>
       <c r="U9" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V9" s="33"/>
       <c r="W9" s="33"/>
@@ -8578,9 +8592,7 @@
       <c r="AH9" s="51"/>
       <c r="AI9" s="51"/>
       <c r="AJ9" s="51"/>
-      <c r="AK9" s="51" t="s">
-        <v>97</v>
-      </c>
+      <c r="AK9" s="51"/>
       <c r="AL9" s="51"/>
       <c r="AM9" s="33"/>
       <c r="AN9" s="33"/>
@@ -11496,10 +11508,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT52"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7:T7"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -11575,7 +11587,7 @@
       <c r="M2" s="62"/>
       <c r="N2" s="63"/>
       <c r="O2" s="88" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
@@ -11737,7 +11749,7 @@
       </c>
       <c r="AL5" s="83"/>
       <c r="AM5" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AN5" s="33"/>
       <c r="AO5" s="33"/>
@@ -11838,7 +11850,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="39"/>
       <c r="L7" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -11892,7 +11904,7 @@
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -11903,7 +11915,7 @@
       <c r="J8" s="38"/>
       <c r="K8" s="39"/>
       <c r="L8" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -11914,7 +11926,7 @@
       <c r="S8" s="38"/>
       <c r="T8" s="39"/>
       <c r="U8" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V8" s="33"/>
       <c r="W8" s="33"/>
@@ -11932,7 +11944,7 @@
       <c r="AI8" s="51"/>
       <c r="AJ8" s="51"/>
       <c r="AK8" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL8" s="51"/>
       <c r="AM8" s="33"/>
@@ -11957,7 +11969,7 @@
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -11968,7 +11980,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="39"/>
       <c r="L9" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -11979,7 +11991,7 @@
       <c r="S9" s="38"/>
       <c r="T9" s="39"/>
       <c r="U9" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V9" s="33"/>
       <c r="W9" s="33"/>
@@ -11999,7 +12011,7 @@
       <c r="AI9" s="51"/>
       <c r="AJ9" s="51"/>
       <c r="AK9" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL9" s="51"/>
       <c r="AM9" s="52"/>
@@ -14931,10 +14943,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15:T15"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -15010,7 +15022,7 @@
       <c r="M2" s="62"/>
       <c r="N2" s="63"/>
       <c r="O2" s="88" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
@@ -15160,7 +15172,7 @@
       <c r="AC5" s="33"/>
       <c r="AD5" s="33"/>
       <c r="AE5" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF5" s="51"/>
       <c r="AG5" s="51"/>
@@ -15172,7 +15184,7 @@
       </c>
       <c r="AL5" s="51"/>
       <c r="AM5" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AN5" s="33"/>
       <c r="AO5" s="33"/>
@@ -15239,7 +15251,7 @@
       </c>
       <c r="AL6" s="51"/>
       <c r="AM6" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AN6" s="33"/>
       <c r="AO6" s="33"/>
@@ -15273,7 +15285,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="39"/>
       <c r="L7" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -15327,7 +15339,7 @@
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -15338,7 +15350,7 @@
       <c r="J8" s="38"/>
       <c r="K8" s="39"/>
       <c r="L8" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -15349,7 +15361,7 @@
       <c r="S8" s="38"/>
       <c r="T8" s="39"/>
       <c r="U8" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V8" s="33"/>
       <c r="W8" s="33"/>
@@ -15358,7 +15370,7 @@
       <c r="Z8" s="33"/>
       <c r="AA8" s="33"/>
       <c r="AB8" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC8" s="51"/>
       <c r="AD8" s="51"/>
@@ -15369,11 +15381,11 @@
       <c r="AI8" s="51"/>
       <c r="AJ8" s="51"/>
       <c r="AK8" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL8" s="51"/>
       <c r="AM8" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AN8" s="33"/>
       <c r="AO8" s="33"/>
@@ -15407,7 +15419,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="39"/>
       <c r="L9" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -15418,7 +15430,7 @@
       <c r="S9" s="38"/>
       <c r="T9" s="39"/>
       <c r="U9" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V9" s="33"/>
       <c r="W9" s="33"/>
@@ -18355,10 +18367,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="U5" sqref="U5:Y5"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -18432,7 +18444,7 @@
       <c r="M2" s="62"/>
       <c r="N2" s="63"/>
       <c r="O2" s="88" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
@@ -18548,7 +18560,7 @@
       </c>
       <c r="B5" s="50"/>
       <c r="C5" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -18559,7 +18571,7 @@
       <c r="J5" s="38"/>
       <c r="K5" s="39"/>
       <c r="L5" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
@@ -18590,11 +18602,11 @@
       <c r="AI5" s="51"/>
       <c r="AJ5" s="51"/>
       <c r="AK5" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL5" s="51"/>
       <c r="AM5" s="52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AN5" s="52"/>
       <c r="AO5" s="52"/>
@@ -18617,7 +18629,7 @@
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -18628,7 +18640,7 @@
       <c r="J6" s="38"/>
       <c r="K6" s="39"/>
       <c r="L6" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
@@ -18639,7 +18651,7 @@
       <c r="S6" s="38"/>
       <c r="T6" s="39"/>
       <c r="U6" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V6" s="38"/>
       <c r="W6" s="38"/>
@@ -18657,7 +18669,7 @@
       <c r="AI6" s="51"/>
       <c r="AJ6" s="51"/>
       <c r="AK6" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL6" s="51"/>
       <c r="AM6" s="33"/>
@@ -18682,7 +18694,7 @@
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -18693,7 +18705,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="39"/>
       <c r="L7" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -18704,7 +18716,7 @@
       <c r="S7" s="38"/>
       <c r="T7" s="39"/>
       <c r="U7" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V7" s="38"/>
       <c r="W7" s="38"/>
@@ -18722,7 +18734,7 @@
       <c r="AI7" s="51"/>
       <c r="AJ7" s="51"/>
       <c r="AK7" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL7" s="51"/>
       <c r="AM7" s="33"/>
@@ -18747,7 +18759,7 @@
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -18758,7 +18770,7 @@
       <c r="J8" s="38"/>
       <c r="K8" s="39"/>
       <c r="L8" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -18769,7 +18781,7 @@
       <c r="S8" s="38"/>
       <c r="T8" s="39"/>
       <c r="U8" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V8" s="33"/>
       <c r="W8" s="33"/>
@@ -18787,7 +18799,7 @@
       <c r="AI8" s="51"/>
       <c r="AJ8" s="51"/>
       <c r="AK8" s="51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL8" s="51"/>
       <c r="AM8" s="33"/>
